--- a/User_Data/NLQ_Data/NLQ_Data.xlsx
+++ b/User_Data/NLQ_Data/NLQ_Data.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1819,6 +1819,14 @@
         <v>6234.276</v>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6287.389</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1830,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1198"/>
+  <dimension ref="A1:B1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11410,7 +11418,7 @@
         <v>45392</v>
       </c>
       <c r="B1197" t="n">
-        <v>6225.091</v>
+        <v>6287.389</v>
       </c>
     </row>
     <row r="1198">
@@ -11418,7 +11426,39 @@
         <v>45393</v>
       </c>
       <c r="B1198" t="n">
-        <v>6225.091</v>
+        <v>6277.844</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="3" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>6325.883</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="3" t="n">
+        <v>45395</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>6325.883</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="3" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>6325.883</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="3" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>6325.883</v>
       </c>
     </row>
   </sheetData>
@@ -11432,7 +11472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1198"/>
+  <dimension ref="A1:B1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20940,7 +20980,7 @@
         <v>45383</v>
       </c>
       <c r="B1188" t="n">
-        <v>6406.153646333134</v>
+        <v>6400.421359691916</v>
       </c>
     </row>
     <row r="1189">
@@ -20948,7 +20988,7 @@
         <v>45384</v>
       </c>
       <c r="B1189" t="n">
-        <v>6430.802646333134</v>
+        <v>6425.070359691917</v>
       </c>
     </row>
     <row r="1190">
@@ -20956,7 +20996,7 @@
         <v>45385</v>
       </c>
       <c r="B1190" t="n">
-        <v>6422.322646333134</v>
+        <v>6416.590359691916</v>
       </c>
     </row>
     <row r="1191">
@@ -20964,7 +21004,7 @@
         <v>45386</v>
       </c>
       <c r="B1191" t="n">
-        <v>6442.815646333134</v>
+        <v>6437.083359691916</v>
       </c>
     </row>
     <row r="1192">
@@ -20972,7 +21012,7 @@
         <v>45387</v>
       </c>
       <c r="B1192" t="n">
-        <v>6443.073646333134</v>
+        <v>6437.341359691916</v>
       </c>
     </row>
     <row r="1193">
@@ -20980,7 +21020,7 @@
         <v>45388</v>
       </c>
       <c r="B1193" t="n">
-        <v>6443.073646333134</v>
+        <v>6437.341359691916</v>
       </c>
     </row>
     <row r="1194">
@@ -20988,7 +21028,7 @@
         <v>45389</v>
       </c>
       <c r="B1194" t="n">
-        <v>6443.073646333134</v>
+        <v>6437.341359691916</v>
       </c>
     </row>
     <row r="1195">
@@ -20996,7 +21036,7 @@
         <v>45390</v>
       </c>
       <c r="B1195" t="n">
-        <v>6414.117646333136</v>
+        <v>6408.385359691918</v>
       </c>
     </row>
     <row r="1196">
@@ -21004,7 +21044,7 @@
         <v>45391</v>
       </c>
       <c r="B1196" t="n">
-        <v>6458.165646333135</v>
+        <v>6452.433359691917</v>
       </c>
     </row>
     <row r="1197">
@@ -21012,7 +21052,7 @@
         <v>45392</v>
       </c>
       <c r="B1197" t="n">
-        <v>6454.141646333135</v>
+        <v>6462.155645406204</v>
       </c>
     </row>
     <row r="1198">
@@ -21020,7 +21060,39 @@
         <v>45393</v>
       </c>
       <c r="B1198" t="n">
-        <v>6454.141646333135</v>
+        <v>6457.430645406204</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="3" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>6505.469645406204</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="3" t="n">
+        <v>45395</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>6505.469645406204</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="3" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>6505.469645406204</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="3" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>6505.469645406204</v>
       </c>
     </row>
   </sheetData>
@@ -21034,7 +21106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1198"/>
+  <dimension ref="A1:B1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30614,7 +30686,7 @@
         <v>45392</v>
       </c>
       <c r="B1197" t="n">
-        <v>7439.558</v>
+        <v>7438.176</v>
       </c>
     </row>
     <row r="1198">
@@ -30622,7 +30694,39 @@
         <v>45393</v>
       </c>
       <c r="B1198" t="n">
-        <v>7439.558</v>
+        <v>7438.176</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="3" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>7438.176</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="3" t="n">
+        <v>45395</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>7438.176</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="3" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>7438.176</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="3" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>7438.176</v>
       </c>
     </row>
   </sheetData>
@@ -30636,7 +30740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1198"/>
+  <dimension ref="A1:B1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40224,7 +40328,39 @@
         <v>45393</v>
       </c>
       <c r="B1198" t="n">
-        <v>445.816</v>
+        <v>455.361</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="3" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>407.322</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="3" t="n">
+        <v>45395</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>407.322</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="3" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>407.322</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="3" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>407.322</v>
       </c>
     </row>
   </sheetData>
@@ -40238,7 +40374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1198"/>
+  <dimension ref="A1:B1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49818,7 +49954,7 @@
         <v>45392</v>
       </c>
       <c r="B1197" t="n">
-        <v>691.824</v>
+        <v>672.537</v>
       </c>
     </row>
     <row r="1198">
@@ -49826,7 +49962,39 @@
         <v>45393</v>
       </c>
       <c r="B1198" t="n">
-        <v>691.824</v>
+        <v>667.717</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="3" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>667.717</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="3" t="n">
+        <v>45395</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>667.717</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="3" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>667.717</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="3" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>667.717</v>
       </c>
     </row>
   </sheetData>

--- a/User_Data/NLQ_Data/NLQ_Data.xlsx
+++ b/User_Data/NLQ_Data/NLQ_Data.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B172"/>
+  <dimension ref="A1:B174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1827,6 +1827,22 @@
         <v>6287.389</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" s="3" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6168.463000000001</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6019.789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1838,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1202"/>
+  <dimension ref="A1:B1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11458,7 +11474,111 @@
         <v>45397</v>
       </c>
       <c r="B1202" t="n">
-        <v>6325.883</v>
+        <v>6406.139</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="3" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>6361.651</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="3" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>6168.463000000001</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="3" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>6175.965</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="3" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>6211.737</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="3" t="n">
+        <v>45402</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>6211.737</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="3" t="n">
+        <v>45403</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>6211.737</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="3" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>6199.155000000001</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="3" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>6173.091</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="3" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>6019.789</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="3" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>6017.076</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="3" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>5996.092</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="3" t="n">
+        <v>45409</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>5996.092</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="3" t="n">
+        <v>45410</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>5996.092</v>
       </c>
     </row>
   </sheetData>
@@ -11472,7 +11592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1202"/>
+  <dimension ref="A1:B1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20980,7 +21100,7 @@
         <v>45383</v>
       </c>
       <c r="B1188" t="n">
-        <v>6400.421359691916</v>
+        <v>6393.10245799822</v>
       </c>
     </row>
     <row r="1189">
@@ -20988,7 +21108,7 @@
         <v>45384</v>
       </c>
       <c r="B1189" t="n">
-        <v>6425.070359691917</v>
+        <v>6417.751457998221</v>
       </c>
     </row>
     <row r="1190">
@@ -20996,7 +21116,7 @@
         <v>45385</v>
       </c>
       <c r="B1190" t="n">
-        <v>6416.590359691916</v>
+        <v>6409.27145799822</v>
       </c>
     </row>
     <row r="1191">
@@ -21004,7 +21124,7 @@
         <v>45386</v>
       </c>
       <c r="B1191" t="n">
-        <v>6437.083359691916</v>
+        <v>6429.764457998221</v>
       </c>
     </row>
     <row r="1192">
@@ -21012,7 +21132,7 @@
         <v>45387</v>
       </c>
       <c r="B1192" t="n">
-        <v>6437.341359691916</v>
+        <v>6430.02245799822</v>
       </c>
     </row>
     <row r="1193">
@@ -21020,7 +21140,7 @@
         <v>45388</v>
       </c>
       <c r="B1193" t="n">
-        <v>6437.341359691916</v>
+        <v>6430.02245799822</v>
       </c>
     </row>
     <row r="1194">
@@ -21028,7 +21148,7 @@
         <v>45389</v>
       </c>
       <c r="B1194" t="n">
-        <v>6437.341359691916</v>
+        <v>6430.02245799822</v>
       </c>
     </row>
     <row r="1195">
@@ -21036,7 +21156,7 @@
         <v>45390</v>
       </c>
       <c r="B1195" t="n">
-        <v>6408.385359691918</v>
+        <v>6401.066457998222</v>
       </c>
     </row>
     <row r="1196">
@@ -21044,7 +21164,7 @@
         <v>45391</v>
       </c>
       <c r="B1196" t="n">
-        <v>6452.433359691917</v>
+        <v>6445.114457998221</v>
       </c>
     </row>
     <row r="1197">
@@ -21052,7 +21172,7 @@
         <v>45392</v>
       </c>
       <c r="B1197" t="n">
-        <v>6462.155645406204</v>
+        <v>6454.836743712508</v>
       </c>
     </row>
     <row r="1198">
@@ -21060,7 +21180,7 @@
         <v>45393</v>
       </c>
       <c r="B1198" t="n">
-        <v>6457.430645406204</v>
+        <v>6450.111743712509</v>
       </c>
     </row>
     <row r="1199">
@@ -21068,7 +21188,7 @@
         <v>45394</v>
       </c>
       <c r="B1199" t="n">
-        <v>6505.469645406204</v>
+        <v>6440.841743712508</v>
       </c>
     </row>
     <row r="1200">
@@ -21076,7 +21196,7 @@
         <v>45395</v>
       </c>
       <c r="B1200" t="n">
-        <v>6505.469645406204</v>
+        <v>6440.841743712508</v>
       </c>
     </row>
     <row r="1201">
@@ -21084,7 +21204,7 @@
         <v>45396</v>
       </c>
       <c r="B1201" t="n">
-        <v>6505.469645406204</v>
+        <v>6440.841743712508</v>
       </c>
     </row>
     <row r="1202">
@@ -21092,7 +21212,111 @@
         <v>45397</v>
       </c>
       <c r="B1202" t="n">
-        <v>6505.469645406204</v>
+        <v>6349.107743712509</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="3" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>6295.633743712508</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="3" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>6169.411172283937</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="3" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>6176.303172283936</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="3" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>6203.153172283936</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="3" t="n">
+        <v>45402</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>6203.153172283936</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="3" t="n">
+        <v>45403</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>6203.153172283936</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="3" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>6174.049172283937</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="3" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>6148.257172283937</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="3" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>6165.937457998222</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="3" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>6184.638457998222</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="3" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>6163.654457998222</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="3" t="n">
+        <v>45409</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>6163.654457998222</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="3" t="n">
+        <v>45410</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>6163.654457998222</v>
       </c>
     </row>
   </sheetData>
@@ -21106,7 +21330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1202"/>
+  <dimension ref="A1:B1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30729,6 +30953,110 @@
         <v>7438.176</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" s="3" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>7438.176</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="3" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>7405.506</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="3" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>7405.506</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="3" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>7405.506</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="3" t="n">
+        <v>45402</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>7405.506</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="3" t="n">
+        <v>45403</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>7405.506</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="3" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>7405.506</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="3" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>7405.506</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="3" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>7402.434</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="3" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>7402.434</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="3" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>7402.434</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="3" t="n">
+        <v>45409</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>7402.434</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="3" t="n">
+        <v>45410</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>7402.434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30740,7 +31068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1202"/>
+  <dimension ref="A1:B1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40360,7 +40688,111 @@
         <v>45397</v>
       </c>
       <c r="B1202" t="n">
-        <v>407.322</v>
+        <v>327.066</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="3" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>371.554</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="3" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>440.508</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="3" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>433.006</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="3" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>397.234</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="3" t="n">
+        <v>45402</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>397.234</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="3" t="n">
+        <v>45403</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>397.234</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="3" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>409.816</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="3" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>435.88</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="3" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>441.215</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="3" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>443.928</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="3" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>464.912</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="3" t="n">
+        <v>45409</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>464.912</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="3" t="n">
+        <v>45410</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>464.912</v>
       </c>
     </row>
   </sheetData>
@@ -40374,7 +40806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1202"/>
+  <dimension ref="A1:B1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49970,7 +50402,7 @@
         <v>45394</v>
       </c>
       <c r="B1199" t="n">
-        <v>667.717</v>
+        <v>725.026</v>
       </c>
     </row>
     <row r="1200">
@@ -49978,7 +50410,7 @@
         <v>45395</v>
       </c>
       <c r="B1200" t="n">
-        <v>667.717</v>
+        <v>725.026</v>
       </c>
     </row>
     <row r="1201">
@@ -49986,7 +50418,7 @@
         <v>45396</v>
       </c>
       <c r="B1201" t="n">
-        <v>667.717</v>
+        <v>725.026</v>
       </c>
     </row>
     <row r="1202">
@@ -49994,7 +50426,111 @@
         <v>45397</v>
       </c>
       <c r="B1202" t="n">
-        <v>667.717</v>
+        <v>897.016</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="3" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>906.002</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="3" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>929.932</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="3" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>930.542</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="3" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>939.4640000000001</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="3" t="n">
+        <v>45402</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>939.4640000000001</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="3" t="n">
+        <v>45403</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>939.4640000000001</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="3" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>955.986</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="3" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>955.7140000000001</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="3" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>929.379</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="3" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>907.965</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="3" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>907.965</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="3" t="n">
+        <v>45409</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>907.965</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="3" t="n">
+        <v>45410</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>907.965</v>
       </c>
     </row>
   </sheetData>

--- a/User_Data/NLQ_Data/NLQ_Data.xlsx
+++ b/User_Data/NLQ_Data/NLQ_Data.xlsx
@@ -1854,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1215"/>
+  <dimension ref="A1:B1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11581,6 +11581,30 @@
         <v>5996.092</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" s="3" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>5955.474</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="3" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>5926.77</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="3" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>5926.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11592,7 +11616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1215"/>
+  <dimension ref="A1:B1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21100,7 +21124,7 @@
         <v>45383</v>
       </c>
       <c r="B1188" t="n">
-        <v>6393.10245799822</v>
+        <v>6392.539465560243</v>
       </c>
     </row>
     <row r="1189">
@@ -21108,7 +21132,7 @@
         <v>45384</v>
       </c>
       <c r="B1189" t="n">
-        <v>6417.751457998221</v>
+        <v>6417.188465560243</v>
       </c>
     </row>
     <row r="1190">
@@ -21116,7 +21140,7 @@
         <v>45385</v>
       </c>
       <c r="B1190" t="n">
-        <v>6409.27145799822</v>
+        <v>6408.708465560243</v>
       </c>
     </row>
     <row r="1191">
@@ -21124,7 +21148,7 @@
         <v>45386</v>
       </c>
       <c r="B1191" t="n">
-        <v>6429.764457998221</v>
+        <v>6429.201465560243</v>
       </c>
     </row>
     <row r="1192">
@@ -21132,7 +21156,7 @@
         <v>45387</v>
       </c>
       <c r="B1192" t="n">
-        <v>6430.02245799822</v>
+        <v>6429.459465560243</v>
       </c>
     </row>
     <row r="1193">
@@ -21140,7 +21164,7 @@
         <v>45388</v>
       </c>
       <c r="B1193" t="n">
-        <v>6430.02245799822</v>
+        <v>6429.459465560243</v>
       </c>
     </row>
     <row r="1194">
@@ -21148,7 +21172,7 @@
         <v>45389</v>
       </c>
       <c r="B1194" t="n">
-        <v>6430.02245799822</v>
+        <v>6429.459465560243</v>
       </c>
     </row>
     <row r="1195">
@@ -21156,7 +21180,7 @@
         <v>45390</v>
       </c>
       <c r="B1195" t="n">
-        <v>6401.066457998222</v>
+        <v>6400.503465560245</v>
       </c>
     </row>
     <row r="1196">
@@ -21164,7 +21188,7 @@
         <v>45391</v>
       </c>
       <c r="B1196" t="n">
-        <v>6445.114457998221</v>
+        <v>6444.551465560244</v>
       </c>
     </row>
     <row r="1197">
@@ -21172,7 +21196,7 @@
         <v>45392</v>
       </c>
       <c r="B1197" t="n">
-        <v>6454.836743712508</v>
+        <v>6454.273751274531</v>
       </c>
     </row>
     <row r="1198">
@@ -21180,7 +21204,7 @@
         <v>45393</v>
       </c>
       <c r="B1198" t="n">
-        <v>6450.111743712509</v>
+        <v>6449.548751274531</v>
       </c>
     </row>
     <row r="1199">
@@ -21188,7 +21212,7 @@
         <v>45394</v>
       </c>
       <c r="B1199" t="n">
-        <v>6440.841743712508</v>
+        <v>6440.278751274531</v>
       </c>
     </row>
     <row r="1200">
@@ -21196,7 +21220,7 @@
         <v>45395</v>
       </c>
       <c r="B1200" t="n">
-        <v>6440.841743712508</v>
+        <v>6440.278751274531</v>
       </c>
     </row>
     <row r="1201">
@@ -21204,7 +21228,7 @@
         <v>45396</v>
       </c>
       <c r="B1201" t="n">
-        <v>6440.841743712508</v>
+        <v>6440.278751274531</v>
       </c>
     </row>
     <row r="1202">
@@ -21212,7 +21236,7 @@
         <v>45397</v>
       </c>
       <c r="B1202" t="n">
-        <v>6349.107743712509</v>
+        <v>6348.544751274531</v>
       </c>
     </row>
     <row r="1203">
@@ -21220,7 +21244,7 @@
         <v>45398</v>
       </c>
       <c r="B1203" t="n">
-        <v>6295.633743712508</v>
+        <v>6295.070751274531</v>
       </c>
     </row>
     <row r="1204">
@@ -21228,7 +21252,7 @@
         <v>45399</v>
       </c>
       <c r="B1204" t="n">
-        <v>6169.411172283937</v>
+        <v>6168.84817984596</v>
       </c>
     </row>
     <row r="1205">
@@ -21236,7 +21260,7 @@
         <v>45400</v>
       </c>
       <c r="B1205" t="n">
-        <v>6176.303172283936</v>
+        <v>6175.740179845959</v>
       </c>
     </row>
     <row r="1206">
@@ -21244,7 +21268,7 @@
         <v>45401</v>
       </c>
       <c r="B1206" t="n">
-        <v>6203.153172283936</v>
+        <v>6202.590179845959</v>
       </c>
     </row>
     <row r="1207">
@@ -21252,7 +21276,7 @@
         <v>45402</v>
       </c>
       <c r="B1207" t="n">
-        <v>6203.153172283936</v>
+        <v>6202.590179845959</v>
       </c>
     </row>
     <row r="1208">
@@ -21260,7 +21284,7 @@
         <v>45403</v>
       </c>
       <c r="B1208" t="n">
-        <v>6203.153172283936</v>
+        <v>6202.590179845959</v>
       </c>
     </row>
     <row r="1209">
@@ -21268,7 +21292,7 @@
         <v>45404</v>
       </c>
       <c r="B1209" t="n">
-        <v>6174.049172283937</v>
+        <v>6173.48617984596</v>
       </c>
     </row>
     <row r="1210">
@@ -21276,7 +21300,7 @@
         <v>45405</v>
       </c>
       <c r="B1210" t="n">
-        <v>6148.257172283937</v>
+        <v>6147.694179845959</v>
       </c>
     </row>
     <row r="1211">
@@ -21284,7 +21308,7 @@
         <v>45406</v>
       </c>
       <c r="B1211" t="n">
-        <v>6165.937457998222</v>
+        <v>6165.374465560245</v>
       </c>
     </row>
     <row r="1212">
@@ -21292,7 +21316,7 @@
         <v>45407</v>
       </c>
       <c r="B1212" t="n">
-        <v>6184.638457998222</v>
+        <v>6184.075465560245</v>
       </c>
     </row>
     <row r="1213">
@@ -21300,7 +21324,7 @@
         <v>45408</v>
       </c>
       <c r="B1213" t="n">
-        <v>6163.654457998222</v>
+        <v>6161.118465560245</v>
       </c>
     </row>
     <row r="1214">
@@ -21308,7 +21332,7 @@
         <v>45409</v>
       </c>
       <c r="B1214" t="n">
-        <v>6163.654457998222</v>
+        <v>6161.118465560245</v>
       </c>
     </row>
     <row r="1215">
@@ -21316,7 +21340,31 @@
         <v>45410</v>
       </c>
       <c r="B1215" t="n">
-        <v>6163.654457998222</v>
+        <v>6161.118465560245</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="3" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>6100.844465560245</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="3" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>6072.140465560245</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="3" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>6300.715395378771</v>
       </c>
     </row>
   </sheetData>
@@ -21330,7 +21378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1215"/>
+  <dimension ref="A1:B1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31057,6 +31105,30 @@
         <v>7402.434</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" s="3" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>7402.434</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="3" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>7402.434</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="3" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>7402.434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31068,7 +31140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1215"/>
+  <dimension ref="A1:B1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40795,6 +40867,30 @@
         <v>464.912</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" s="3" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>505.53</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="3" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>534.234</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="3" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>534.234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -40806,7 +40902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1215"/>
+  <dimension ref="A1:B1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50514,7 +50610,7 @@
         <v>45408</v>
       </c>
       <c r="B1213" t="n">
-        <v>907.965</v>
+        <v>909.938</v>
       </c>
     </row>
     <row r="1214">
@@ -50522,7 +50618,7 @@
         <v>45409</v>
       </c>
       <c r="B1214" t="n">
-        <v>907.965</v>
+        <v>909.938</v>
       </c>
     </row>
     <row r="1215">
@@ -50530,7 +50626,31 @@
         <v>45410</v>
       </c>
       <c r="B1215" t="n">
-        <v>907.965</v>
+        <v>909.938</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="3" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>929.5940000000001</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="3" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>929.5940000000001</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="3" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>929.5940000000001</v>
       </c>
     </row>
   </sheetData>

--- a/User_Data/NLQ_Data/NLQ_Data.xlsx
+++ b/User_Data/NLQ_Data/NLQ_Data.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B174"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1843,6 +1843,14 @@
         <v>6019.789</v>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" s="3" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6007.149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1854,7 +1862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1218"/>
+  <dimension ref="A1:B1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11602,7 +11610,71 @@
         <v>45413</v>
       </c>
       <c r="B1218" t="n">
-        <v>5926.77</v>
+        <v>6007.149</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>6016.617</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="3" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>5995.132000000001</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="3" t="n">
+        <v>45416</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>5995.132000000001</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="3" t="n">
+        <v>45417</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>5995.132000000001</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="3" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>5976.327</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="3" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>5969.972000000001</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="3" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>5951.870000000001</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="3" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>5951.870000000001</v>
       </c>
     </row>
   </sheetData>
@@ -11616,7 +11688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1218"/>
+  <dimension ref="A1:B1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21356,7 +21428,7 @@
         <v>45412</v>
       </c>
       <c r="B1217" t="n">
-        <v>6072.140465560245</v>
+        <v>6039.306465560245</v>
       </c>
     </row>
     <row r="1218">
@@ -21364,7 +21436,71 @@
         <v>45413</v>
       </c>
       <c r="B1218" t="n">
-        <v>6300.715395378771</v>
+        <v>6184.465123296054</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>6211.783123296054</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="3" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>6209.780123296055</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="3" t="n">
+        <v>45416</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>6209.780123296055</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="3" t="n">
+        <v>45417</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>6209.780123296055</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="3" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>6177.222123296054</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="3" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>6192.189123296054</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="3" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>6174.087123296054</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="3" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>6174.087123296054</v>
       </c>
     </row>
   </sheetData>
@@ -21378,7 +21514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1218"/>
+  <dimension ref="A1:B1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31126,7 +31262,71 @@
         <v>45413</v>
       </c>
       <c r="B1218" t="n">
-        <v>7402.434</v>
+        <v>7362.474</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>7362.474</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="3" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>7362.474</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="3" t="n">
+        <v>45416</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>7362.474</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="3" t="n">
+        <v>45417</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>7362.474</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="3" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>7362.474</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="3" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>7362.474</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="3" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>7362.474</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="3" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>7362.474</v>
       </c>
     </row>
   </sheetData>
@@ -31140,7 +31340,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1218"/>
+  <dimension ref="A1:B1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40888,7 +41088,71 @@
         <v>45413</v>
       </c>
       <c r="B1218" t="n">
-        <v>534.234</v>
+        <v>438.148</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>428.68</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="3" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>450.165</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="3" t="n">
+        <v>45416</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>450.165</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="3" t="n">
+        <v>45417</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>450.165</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="3" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>468.97</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="3" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>475.325</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="3" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>493.427</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="3" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>493.427</v>
       </c>
     </row>
   </sheetData>
@@ -40902,7 +41166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1218"/>
+  <dimension ref="A1:B1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50642,7 +50906,7 @@
         <v>45412</v>
       </c>
       <c r="B1217" t="n">
-        <v>929.5940000000001</v>
+        <v>962.428</v>
       </c>
     </row>
     <row r="1218">
@@ -50650,7 +50914,71 @@
         <v>45413</v>
       </c>
       <c r="B1218" t="n">
-        <v>929.5940000000001</v>
+        <v>890.442</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>872.592</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="3" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>853.11</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="3" t="n">
+        <v>45416</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>853.11</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="3" t="n">
+        <v>45417</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>853.11</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="3" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>866.8630000000001</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="3" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>845.5410000000001</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="3" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>845.5410000000001</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="3" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>845.5410000000001</v>
       </c>
     </row>
   </sheetData>

--- a/User_Data/NLQ_Data/NLQ_Data.xlsx
+++ b/User_Data/NLQ_Data/NLQ_Data.xlsx
@@ -1894,7 +1894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1249"/>
+  <dimension ref="A1:B1253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11893,6 +11893,38 @@
         <v>6140.178000000001</v>
       </c>
     </row>
+    <row r="1250">
+      <c r="A1250" s="3" t="n">
+        <v>45445</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>6140.178000000001</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>6192.915</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="3" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>6202.159000000001</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="3" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>6202.159000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11904,7 +11936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1249"/>
+  <dimension ref="A1:B1253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21892,7 +21924,7 @@
         <v>45443</v>
       </c>
       <c r="B1248" t="n">
-        <v>6247.169704394575</v>
+        <v>6227.303704394575</v>
       </c>
     </row>
     <row r="1249">
@@ -21900,7 +21932,39 @@
         <v>45444</v>
       </c>
       <c r="B1249" t="n">
-        <v>6044.399407660385</v>
+        <v>6192.156852960648</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="3" t="n">
+        <v>45445</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>6192.156852960648</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>6251.460852960648</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="3" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>6260.704852960648</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="3" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>6260.704852960648</v>
       </c>
     </row>
   </sheetData>
@@ -21914,7 +21978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1249"/>
+  <dimension ref="A1:B1253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31913,6 +31977,38 @@
         <v>7284.319</v>
       </c>
     </row>
+    <row r="1250">
+      <c r="A1250" s="3" t="n">
+        <v>45445</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>7284.319</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>7284.319</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="3" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>7284.319</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="3" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>7284.319</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31924,7 +32020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1249"/>
+  <dimension ref="A1:B1253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41923,6 +42019,38 @@
         <v>439.806</v>
       </c>
     </row>
+    <row r="1250">
+      <c r="A1250" s="3" t="n">
+        <v>45445</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>439.806</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>387.069</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="3" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>377.825</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="3" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>377.825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -41934,7 +42062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1249"/>
+  <dimension ref="A1:B1253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51922,7 +52050,7 @@
         <v>45443</v>
       </c>
       <c r="B1248" t="n">
-        <v>699.0599999999999</v>
+        <v>718.926</v>
       </c>
     </row>
     <row r="1249">
@@ -51930,7 +52058,39 @@
         <v>45444</v>
       </c>
       <c r="B1249" t="n">
-        <v>699.0599999999999</v>
+        <v>718.926</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="3" t="n">
+        <v>45445</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>718.926</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>712.359</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="3" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>712.359</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="3" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>712.359</v>
       </c>
     </row>
   </sheetData>

--- a/User_Data/NLQ_Data/NLQ_Data.xlsx
+++ b/User_Data/NLQ_Data/NLQ_Data.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1899,6 +1899,54 @@
         <v>6137.827</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="3" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5975.589999999999</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6034.249000000001</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B184" t="n">
+        <v>6065.53</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="n">
+        <v>45490</v>
+      </c>
+      <c r="B185" t="n">
+        <v>6057.253000000001</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6032.018999999999</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5978.705</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1910,7 +1958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1273"/>
+  <dimension ref="A1:B1312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12098,7 +12146,319 @@
         <v>45468</v>
       </c>
       <c r="B1273" t="n">
-        <v>6093.216</v>
+        <v>6062.822</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="3" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>5975.589999999999</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="3" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>5934.053999999999</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="3" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>5801.175999999999</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="3" t="n">
+        <v>45472</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>5801.175999999999</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="3" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>5801.175999999999</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="3" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>6013.962999999999</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="3" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>6022.376999999999</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="3" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>6034.249000000001</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>6034.249000000001</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="3" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>6069.515000000001</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="3" t="n">
+        <v>45479</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>6069.515000000001</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="3" t="n">
+        <v>45480</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>6069.515000000001</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="3" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>6044.890000000001</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="3" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>6036.995000000001</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="3" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>6065.53</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="3" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>6083.969</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="3" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>6081.087</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="3" t="n">
+        <v>45486</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>6081.087</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="3" t="n">
+        <v>45487</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>6081.087</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="3" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>6074.397</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="3" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>6078.083</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="3" t="n">
+        <v>45490</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>6057.253000000001</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="3" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>6065.002</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="3" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>6076.853</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="3" t="n">
+        <v>45493</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>6076.853</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="3" t="n">
+        <v>45494</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>6076.853</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="3" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>6060.753000000001</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="3" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>6066.817000000001</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>6032.018999999999</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>6053.706999999999</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="3" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>6049.883</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="3" t="n">
+        <v>45500</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>6049.883</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="3" t="n">
+        <v>45501</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>6049.883</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="3" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>6045.858999999999</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="3" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>6064.085999999999</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="3" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>5978.705</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="3" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>6043.02</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="3" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>6053.432</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="3" t="n">
+        <v>45507</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>6053.432</v>
       </c>
     </row>
   </sheetData>
@@ -12112,7 +12472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1273"/>
+  <dimension ref="A1:B1312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22108,7 +22468,7 @@
         <v>45444</v>
       </c>
       <c r="B1249" t="n">
-        <v>6245.260485049961</v>
+        <v>6236.26155736826</v>
       </c>
     </row>
     <row r="1250">
@@ -22116,7 +22476,7 @@
         <v>45445</v>
       </c>
       <c r="B1250" t="n">
-        <v>6245.260485049961</v>
+        <v>6236.26155736826</v>
       </c>
     </row>
     <row r="1251">
@@ -22124,7 +22484,7 @@
         <v>45446</v>
       </c>
       <c r="B1251" t="n">
-        <v>6304.56448504996</v>
+        <v>6295.565557368259</v>
       </c>
     </row>
     <row r="1252">
@@ -22132,7 +22492,7 @@
         <v>45447</v>
       </c>
       <c r="B1252" t="n">
-        <v>6325.515485049961</v>
+        <v>6316.51655736826</v>
       </c>
     </row>
     <row r="1253">
@@ -22140,7 +22500,7 @@
         <v>45448</v>
       </c>
       <c r="B1253" t="n">
-        <v>6299.755770764245</v>
+        <v>6290.756843082544</v>
       </c>
     </row>
     <row r="1254">
@@ -22148,7 +22508,7 @@
         <v>45449</v>
       </c>
       <c r="B1254" t="n">
-        <v>6316.039770764246</v>
+        <v>6307.040843082545</v>
       </c>
     </row>
     <row r="1255">
@@ -22156,7 +22516,7 @@
         <v>45450</v>
       </c>
       <c r="B1255" t="n">
-        <v>6303.940770764247</v>
+        <v>6294.941843082545</v>
       </c>
     </row>
     <row r="1256">
@@ -22164,7 +22524,7 @@
         <v>45451</v>
       </c>
       <c r="B1256" t="n">
-        <v>6303.940770764247</v>
+        <v>6294.941843082545</v>
       </c>
     </row>
     <row r="1257">
@@ -22172,7 +22532,7 @@
         <v>45452</v>
       </c>
       <c r="B1257" t="n">
-        <v>6303.940770764247</v>
+        <v>6294.941843082545</v>
       </c>
     </row>
     <row r="1258">
@@ -22180,7 +22540,7 @@
         <v>45453</v>
       </c>
       <c r="B1258" t="n">
-        <v>6268.120770764246</v>
+        <v>6259.121843082545</v>
       </c>
     </row>
     <row r="1259">
@@ -22188,7 +22548,7 @@
         <v>45454</v>
       </c>
       <c r="B1259" t="n">
-        <v>6297.243770764247</v>
+        <v>6288.244843082545</v>
       </c>
     </row>
     <row r="1260">
@@ -22196,7 +22556,7 @@
         <v>45455</v>
       </c>
       <c r="B1260" t="n">
-        <v>6280.302485049961</v>
+        <v>6271.30355736826</v>
       </c>
     </row>
     <row r="1261">
@@ -22204,7 +22564,7 @@
         <v>45456</v>
       </c>
       <c r="B1261" t="n">
-        <v>6300.197485049961</v>
+        <v>6291.19855736826</v>
       </c>
     </row>
     <row r="1262">
@@ -22212,7 +22572,7 @@
         <v>45457</v>
       </c>
       <c r="B1262" t="n">
-        <v>6314.89848504996</v>
+        <v>6305.899557368259</v>
       </c>
     </row>
     <row r="1263">
@@ -22220,7 +22580,7 @@
         <v>45458</v>
       </c>
       <c r="B1263" t="n">
-        <v>6314.89848504996</v>
+        <v>6305.899557368259</v>
       </c>
     </row>
     <row r="1264">
@@ -22228,7 +22588,7 @@
         <v>45459</v>
       </c>
       <c r="B1264" t="n">
-        <v>6314.89848504996</v>
+        <v>6305.899557368259</v>
       </c>
     </row>
     <row r="1265">
@@ -22236,7 +22596,7 @@
         <v>45460</v>
       </c>
       <c r="B1265" t="n">
-        <v>6222.04748504996</v>
+        <v>6213.048557368259</v>
       </c>
     </row>
     <row r="1266">
@@ -22244,7 +22604,7 @@
         <v>45461</v>
       </c>
       <c r="B1266" t="n">
-        <v>6220.38848504996</v>
+        <v>6211.389557368258</v>
       </c>
     </row>
     <row r="1267">
@@ -22252,7 +22612,7 @@
         <v>45462</v>
       </c>
       <c r="B1267" t="n">
-        <v>6213.603913621389</v>
+        <v>6204.604985939687</v>
       </c>
     </row>
     <row r="1268">
@@ -22260,7 +22620,7 @@
         <v>45463</v>
       </c>
       <c r="B1268" t="n">
-        <v>6210.713913621389</v>
+        <v>6201.714985939688</v>
       </c>
     </row>
     <row r="1269">
@@ -22268,7 +22628,7 @@
         <v>45464</v>
       </c>
       <c r="B1269" t="n">
-        <v>6186.837913621389</v>
+        <v>6177.838985939688</v>
       </c>
     </row>
     <row r="1270">
@@ -22276,7 +22636,7 @@
         <v>45465</v>
       </c>
       <c r="B1270" t="n">
-        <v>6186.837913621389</v>
+        <v>6177.838985939688</v>
       </c>
     </row>
     <row r="1271">
@@ -22284,7 +22644,7 @@
         <v>45466</v>
       </c>
       <c r="B1271" t="n">
-        <v>6186.837913621389</v>
+        <v>6177.838985939688</v>
       </c>
     </row>
     <row r="1272">
@@ -22292,7 +22652,7 @@
         <v>45467</v>
       </c>
       <c r="B1272" t="n">
-        <v>6171.961913621389</v>
+        <v>6141.954985939688</v>
       </c>
     </row>
     <row r="1273">
@@ -22300,7 +22660,319 @@
         <v>45468</v>
       </c>
       <c r="B1273" t="n">
-        <v>6171.961913621389</v>
+        <v>6128.745985939688</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="3" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>6105.844700225402</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="3" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>6089.896700225401</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="3" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>5897.838700225402</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="3" t="n">
+        <v>45472</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>5897.838700225402</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="3" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>5897.838700225402</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="3" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>6124.984700225401</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="3" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>6128.283700225402</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="3" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>6158.634128796831</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>6158.634128796831</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="3" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>6207.349128796832</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="3" t="n">
+        <v>45479</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>6207.349128796832</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="3" t="n">
+        <v>45480</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>6207.349128796832</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="3" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>6171.715128796832</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="3" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>6159.750128796831</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="3" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>6188.110700225402</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="3" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>6197.461700225402</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="3" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>6191.530700225401</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="3" t="n">
+        <v>45486</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>6191.530700225401</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="3" t="n">
+        <v>45487</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>6191.530700225401</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="3" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>6154.767700225401</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="3" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>6127.967700225401</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="3" t="n">
+        <v>45490</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>6147.67155736826</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="3" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>6146.420557368259</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="3" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>6162.798557368259</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="3" t="n">
+        <v>45493</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>6162.798557368259</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="3" t="n">
+        <v>45494</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>6162.798557368259</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="3" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>6148.167557368259</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="3" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>6130.54755736826</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>6143.766700225402</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>6164.979700225402</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="3" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>6162.521700225402</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="3" t="n">
+        <v>45500</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>6162.521700225402</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="3" t="n">
+        <v>45501</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>6162.521700225402</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="3" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>6143.525700225402</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="3" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>6140.830700225401</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="3" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>6015.721557368259</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="3" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>6148.943557368259</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="3" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>6159.355557368259</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="3" t="n">
+        <v>45507</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>6159.355557368259</v>
       </c>
     </row>
   </sheetData>
@@ -22314,7 +22986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1273"/>
+  <dimension ref="A1:B1312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32505,6 +33177,318 @@
         <v>7252.542</v>
       </c>
     </row>
+    <row r="1274">
+      <c r="A1274" s="3" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>7231.163</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="3" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>7231.163</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="3" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>7231.163</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="3" t="n">
+        <v>45472</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>7231.163</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="3" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>7231.163</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="3" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>7231.163</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="3" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>7231.163</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="3" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>7221.52</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>7221.52</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="3" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>7221.52</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="3" t="n">
+        <v>45479</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>7221.52</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="3" t="n">
+        <v>45480</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>7221.52</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="3" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>7221.52</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="3" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>7221.52</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="3" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>7224.079</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="3" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>7224.079</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="3" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>7224.079</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="3" t="n">
+        <v>45486</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>7224.079</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="3" t="n">
+        <v>45487</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>7224.079</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="3" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>7224.079</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="3" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>7224.079</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="3" t="n">
+        <v>45490</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>7208.247</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="3" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>7208.247</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="3" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>7208.247</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="3" t="n">
+        <v>45493</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>7208.247</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="3" t="n">
+        <v>45494</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>7208.247</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="3" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>7208.247</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="3" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>7208.247</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>7205.455</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>7205.455</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="3" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>7205.455</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="3" t="n">
+        <v>45500</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>7205.455</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="3" t="n">
+        <v>45501</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>7205.455</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="3" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>7205.455</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="3" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>7205.455</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="3" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>7178.391</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="3" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>7178.391</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="3" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>7178.391</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="3" t="n">
+        <v>45507</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>7178.391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -32516,7 +33500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1273"/>
+  <dimension ref="A1:B1312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42704,7 +43688,319 @@
         <v>45468</v>
       </c>
       <c r="B1273" t="n">
-        <v>435.916</v>
+        <v>466.31</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="3" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>490.156</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="3" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>531.692</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="3" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>664.5700000000001</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="3" t="n">
+        <v>45472</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>664.5700000000001</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="3" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>664.5700000000001</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="3" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>451.783</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="3" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>443.369</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="3" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>425.898</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>425.898</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="3" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>390.632</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="3" t="n">
+        <v>45479</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>390.632</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="3" t="n">
+        <v>45480</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>390.632</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="3" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>415.257</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="3" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>423.152</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="3" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>422.147</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="3" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>403.708</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="3" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>406.59</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="3" t="n">
+        <v>45486</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>406.59</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="3" t="n">
+        <v>45487</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>406.59</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="3" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>413.28</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="3" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>409.594</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="3" t="n">
+        <v>45490</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>399.401</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="3" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>391.652</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="3" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>379.801</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="3" t="n">
+        <v>45493</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>379.801</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="3" t="n">
+        <v>45494</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>379.801</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="3" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>395.901</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="3" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>389.837</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>399.121</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>377.433</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="3" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>381.257</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="3" t="n">
+        <v>45500</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>381.257</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="3" t="n">
+        <v>45501</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>381.257</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="3" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>385.281</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="3" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>367.054</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="3" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>413.2</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="3" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>348.885</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="3" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>338.473</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="3" t="n">
+        <v>45507</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>338.473</v>
       </c>
     </row>
   </sheetData>
@@ -42718,7 +44014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1273"/>
+  <dimension ref="A1:B1312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52898,7 +54194,7 @@
         <v>45467</v>
       </c>
       <c r="B1272" t="n">
-        <v>763.426</v>
+        <v>784.434</v>
       </c>
     </row>
     <row r="1273">
@@ -52906,7 +54202,319 @@
         <v>45468</v>
       </c>
       <c r="B1273" t="n">
-        <v>763.426</v>
+        <v>767.249</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="3" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>744.206</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="3" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>718.6180000000001</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="3" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>777.798</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="3" t="n">
+        <v>45472</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>777.798</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="3" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>777.798</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="3" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>763.439</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="3" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>768.554</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="3" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>745.6079999999999</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>745.6079999999999</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="3" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>732.159</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="3" t="n">
+        <v>45479</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>732.159</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="3" t="n">
+        <v>45480</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>732.159</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="3" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>743.168</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="3" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>747.2380000000001</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="3" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>722.328</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="3" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>731.4160000000001</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="3" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>734.465</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="3" t="n">
+        <v>45486</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>734.465</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="3" t="n">
+        <v>45487</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>734.465</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="3" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>764.538</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="3" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>795.024</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="3" t="n">
+        <v>45490</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>766.779</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="3" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>775.779</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="3" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>771.252</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="3" t="n">
+        <v>45493</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>771.252</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="3" t="n">
+        <v>45494</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>771.252</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="3" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>769.783</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="3" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>793.467</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>767.419</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>767.894</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="3" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>766.528</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="3" t="n">
+        <v>45500</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>766.528</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="3" t="n">
+        <v>45501</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>766.528</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="3" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>781.5</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="3" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>802.422</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="3" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>854.001</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="3" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>785.0940000000001</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="3" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>785.0940000000001</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="3" t="n">
+        <v>45507</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>785.0940000000001</v>
       </c>
     </row>
   </sheetData>

--- a/User_Data/NLQ_Data/NLQ_Data.xlsx
+++ b/User_Data/NLQ_Data/NLQ_Data.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1324"/>
+  <dimension ref="A1:B1325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7624,10 +7624,18 @@
       <c r="A1323" s="3" t="n">
         <v>45518</v>
       </c>
+      <c r="B1323" t="n">
+        <v>28182.088382741</v>
+      </c>
     </row>
     <row r="1324">
       <c r="A1324" s="3" t="n">
         <v>45519</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="3" t="n">
+        <v>45520</v>
       </c>
     </row>
   </sheetData>
@@ -7641,7 +7649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1324"/>
+  <dimension ref="A1:B1326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18229,7 +18237,7 @@
         <v>45518</v>
       </c>
       <c r="B1323" t="n">
-        <v>28202.845382741</v>
+        <v>28182.088382741</v>
       </c>
     </row>
     <row r="1324">
@@ -18237,7 +18245,20 @@
         <v>45519</v>
       </c>
       <c r="B1324" t="n">
-        <v>28065.08306314</v>
+        <v>28065.65706314</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="3" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>28168.26748086</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="3" t="n">
+        <v>45521</v>
       </c>
     </row>
   </sheetData>
@@ -18251,7 +18272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1324"/>
+  <dimension ref="A1:B1326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28839,7 +28860,7 @@
         <v>45518</v>
       </c>
       <c r="B1323" t="n">
-        <v>28270.14556988884</v>
+        <v>28295.92299846027</v>
       </c>
     </row>
     <row r="1324">
@@ -28847,7 +28868,20 @@
         <v>45519</v>
       </c>
       <c r="B1324" t="n">
-        <v>28132.38325028784</v>
+        <v>28242.40567885927</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="3" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>28345.01609657927</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="3" t="n">
+        <v>45521</v>
       </c>
     </row>
   </sheetData>
@@ -28861,7 +28895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1324"/>
+  <dimension ref="A1:B1326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39449,7 +39483,7 @@
         <v>45518</v>
       </c>
       <c r="B1323" t="n">
-        <v>7175.256</v>
+        <v>7177.688</v>
       </c>
     </row>
     <row r="1324">
@@ -39457,7 +39491,23 @@
         <v>45519</v>
       </c>
       <c r="B1324" t="n">
-        <v>7175.256</v>
+        <v>7177.688</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="3" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>7177.688</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="3" t="n">
+        <v>45521</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>7177.688</v>
       </c>
     </row>
   </sheetData>
@@ -39471,7 +39521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1324"/>
+  <dimension ref="A1:B1326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50067,7 +50117,23 @@
         <v>45519</v>
       </c>
       <c r="B1324" t="n">
-        <v>328.472</v>
+        <v>307.141</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="3" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>330.317</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="3" t="n">
+        <v>45521</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>330.317</v>
       </c>
     </row>
   </sheetData>
@@ -50081,7 +50147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1324"/>
+  <dimension ref="A1:B1326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60669,7 +60735,7 @@
         <v>45518</v>
       </c>
       <c r="B1323" t="n">
-        <v>812.614</v>
+        <v>788.823</v>
       </c>
     </row>
     <row r="1324">
@@ -60677,7 +60743,23 @@
         <v>45519</v>
       </c>
       <c r="B1324" t="n">
-        <v>812.614</v>
+        <v>725.909</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="3" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>725.909</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="3" t="n">
+        <v>45521</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>725.909</v>
       </c>
     </row>
   </sheetData>

--- a/User_Data/NLQ_Data/NLQ_Data.xlsx
+++ b/User_Data/NLQ_Data/NLQ_Data.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B224"/>
+  <dimension ref="A1:B247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2243,6 +2243,190 @@
         <v>5862.935</v>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" s="3" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5972.303</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5972.400000000001</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B227" t="n">
+        <v>6022.869</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="3" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B228" t="n">
+        <v>6032.399</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B229" t="n">
+        <v>6125.056</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B230" t="n">
+        <v>6139.623</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B231" t="n">
+        <v>6138.244</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="3" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B232" t="n">
+        <v>6086.946</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="3" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B233" t="n">
+        <v>6062.775000000001</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="3" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B234" t="n">
+        <v>6114.75</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="3" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B235" t="n">
+        <v>6165.94</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="3" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B236" t="n">
+        <v>6144.907</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="3" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B237" t="n">
+        <v>6116.590000000001</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="3" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B238" t="n">
+        <v>6127.834</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B239" t="n">
+        <v>6082.108999999999</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B240" t="n">
+        <v>6063.882000000001</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="3" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B241" t="n">
+        <v>5978.642000000001</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B242" t="n">
+        <v>5986.635</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B243" t="n">
+        <v>5904.288</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B244" t="n">
+        <v>5838.258</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B245" t="n">
+        <v>5774.367000000001</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B246" t="n">
+        <v>5771.800999999999</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B247" t="n">
+        <v>5778.156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2254,7 +2438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1589"/>
+  <dimension ref="A1:B1747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14970,7 +15154,1271 @@
         <v>45784</v>
       </c>
       <c r="B1589" t="n">
-        <v>5983.678</v>
+        <v>5972.303</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="3" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>5987.394</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="3" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>5984.89</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="3" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>5984.89</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="3" t="n">
+        <v>45788</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>5984.89</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="3" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>5979.657</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="3" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>5982.948</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="3" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>5972.400000000001</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="3" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>6027.988000000001</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="3" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>6000.625000000001</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="3" t="n">
+        <v>45794</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>6000.625000000001</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="3" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>6000.625000000001</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>5957.007000000001</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="3" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>6001.391000000001</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="3" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>6022.869</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="3" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>6012.652999999999</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="3" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>6030.829999999999</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="3" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>6030.829999999999</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="3" t="n">
+        <v>45802</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>6030.829999999999</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="3" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>6030.829999999999</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="3" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>6047.605</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="3" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>6032.399</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="3" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>6040.38</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="3" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>5890.383</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="3" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>5890.383</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="3" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>5890.383</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="3" t="n">
+        <v>45810</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>6070.199</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="3" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>6052.863</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="3" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>6125.056</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="3" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>6141.211</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="3" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>6144.654</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="3" t="n">
+        <v>45815</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>6144.654</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="3" t="n">
+        <v>45816</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>6144.654</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="3" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>6114.623000000001</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>6111.213</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>6139.623</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>6162.830999999999</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>6175.602999999999</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>6175.602999999999</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="3" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>6175.602999999999</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>6203.489</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>6175.308999999999</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>6138.244</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>6138.244</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="3" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>6205.011</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="3" t="n">
+        <v>45829</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>6205.011</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="3" t="n">
+        <v>45830</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>6205.011</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="3" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>6177.974999999999</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="3" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>6155.927</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="3" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>6086.946</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="3" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>6045.393</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="3" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>6012.083</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="3" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>6012.083</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="3" t="n">
+        <v>45837</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>6012.083</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="3" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>5837.094</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="3" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>6052.295</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="3" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>6062.775000000001</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="3" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>6085.417</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="3" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>6085.417</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="3" t="n">
+        <v>45843</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>6085.417</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="3" t="n">
+        <v>45844</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>6085.417</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="3" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>6082.052000000001</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>6080.667</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="3" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>6114.75</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="3" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>6158.684</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="3" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>6160.386</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="3" t="n">
+        <v>45850</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>6160.386</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="3" t="n">
+        <v>45851</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>6160.386</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="3" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>6124.182</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="3" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>6143.746</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="3" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>6165.94</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="3" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>6169.366</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>6163.728</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="3" t="n">
+        <v>45857</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>6163.728</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="3" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>6163.728</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="3" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>6149.36</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="3" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>6166.652</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="3" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>6144.907</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="3" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>6202.353</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="3" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>6184.03</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="3" t="n">
+        <v>45864</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>6184.03</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="3" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>6184.03</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="3" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>6164.076</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="3" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>6163.521</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="3" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>6116.590000000001</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="3" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>6057.626000000001</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="3" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>6174.645</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="3" t="n">
+        <v>45871</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>6174.645</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="3" t="n">
+        <v>45872</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>6174.645</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="3" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>6146.341000000001</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="3" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>6187.715000000001</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="3" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>6127.834</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="3" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>6141.839</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="3" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>6139.497</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="3" t="n">
+        <v>45878</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>6139.497</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>6139.497</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="3" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>6137.586</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="3" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>6162.308</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="3" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>6082.108999999999</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>6110.492999999999</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>6105.554</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>6105.554</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>6105.554</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="3" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>6101.071</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="3" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>6116.967</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>6063.882000000001</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>6073.523</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="3" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>6062.606000000001</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="3" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>6062.606000000001</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="3" t="n">
+        <v>45893</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>6062.606000000001</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="3" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>6051.314</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="3" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>6070.307000000001</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="3" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>5978.642000000001</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="3" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>5981.42</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="3" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>5935.488</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="3" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>5935.488</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="3" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>5935.488</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="3" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>5935.488</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="3" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>5992.320000000001</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="3" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>5986.635</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>5984.43</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="3" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>5983.561</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="3" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>5983.561</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="3" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>5983.561</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>5985.142</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="3" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>5981.643</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>5904.288</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>5906.791</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>5916.357</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>5916.357</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>5916.357</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>5916.734</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>5914.871</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>5838.258</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>5838.513999999999</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="3" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>5840.857999999999</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="3" t="n">
+        <v>45920</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>5840.857999999999</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="3" t="n">
+        <v>45921</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>5840.857999999999</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>5838.048</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>5837.819</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="3" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>5774.367000000001</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="3" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>5778.170000000001</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>5755.466</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>5755.466</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>5755.466</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>5747.319</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>5754.468000000001</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>5771.800999999999</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>5773.544</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>5756.588</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>5756.588</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>5756.588</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>5760.204</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>5777.357999999999</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>5778.156</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>5778.891</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>5779.263</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>5779.263</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>5779.263</v>
       </c>
     </row>
   </sheetData>
@@ -14984,7 +16432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1589"/>
+  <dimension ref="A1:B1747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27692,7 +29140,7 @@
         <v>45783</v>
       </c>
       <c r="B1588" t="n">
-        <v>5989.168142857143</v>
+        <v>5995.766142857143</v>
       </c>
     </row>
     <row r="1589">
@@ -27700,7 +29148,1271 @@
         <v>45784</v>
       </c>
       <c r="B1589" t="n">
-        <v>5989.168142857143</v>
+        <v>5960.262</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="3" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>5994.985</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="3" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>5995.963</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="3" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>5995.963</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="3" t="n">
+        <v>45788</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>5995.963</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="3" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>5980.107</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="3" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>5976.115</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="3" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>5985.934857142857</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="3" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>6107.306857142858</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="3" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>6071.886857142857</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="3" t="n">
+        <v>45794</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>6071.886857142857</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="3" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>6071.886857142857</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>6009.767857142857</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="3" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>6065.832857142857</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="3" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>6050.105142857143</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="3" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>6042.027142857143</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="3" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>6063.309142857142</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="3" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>6063.309142857142</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="3" t="n">
+        <v>45802</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>6063.309142857142</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="3" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>6063.309142857142</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="3" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>6073.246142857143</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="3" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>6063.130428571429</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="3" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>6107.894428571429</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="3" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>6006.298428571428</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="3" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>6006.298428571428</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="3" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>6006.298428571428</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="3" t="n">
+        <v>45810</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>6098.195428571428</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="3" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>6137.284428571429</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="3" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>6127.915571428573</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="3" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>6169.387571428572</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="3" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>6178.915571428573</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="3" t="n">
+        <v>45815</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>6178.915571428573</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="3" t="n">
+        <v>45816</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>6178.915571428573</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="3" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>6134.846571428572</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>6180.823571428572</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>6195.612428571429</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>6235.038428571428</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>6220.539428571427</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>6220.539428571427</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="3" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>6220.539428571427</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>6090.201428571429</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>6099.184428571428</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>6092.187142857143</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>6092.187142857143</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="3" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>6176.285142857143</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="3" t="n">
+        <v>45829</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>6176.285142857143</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="3" t="n">
+        <v>45830</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>6176.285142857143</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="3" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>6141.201142857142</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="3" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>6135.650142857143</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="3" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>6116.956714285714</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="3" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>6105.141714285714</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="3" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>6038.324714285714</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="3" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>6038.324714285714</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="3" t="n">
+        <v>45837</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>6038.324714285714</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="3" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>5744.703714285713</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="3" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>6049.372714285714</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="3" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>6050.093857142857</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="3" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>6131.805857142856</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="3" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>6131.805857142856</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="3" t="n">
+        <v>45843</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>6131.805857142856</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="3" t="n">
+        <v>45844</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>6131.805857142856</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="3" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>6109.120857142857</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>6097.170857142856</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="3" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>6123.750714285715</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="3" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>6190.337714285714</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="3" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>6198.071714285715</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="3" t="n">
+        <v>45850</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>6198.071714285715</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="3" t="n">
+        <v>45851</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>6198.071714285715</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="3" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>6146.006714285714</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="3" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>6135.857714285715</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="3" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>6150.223285714285</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="3" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>6148.708285714286</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>6144.438285714285</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="3" t="n">
+        <v>45857</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>6144.438285714285</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="3" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>6144.438285714285</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="3" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>6126.369285714285</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="3" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>6117.685285714286</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="3" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>6134.638285714286</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="3" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>6176.214285714286</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="3" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>6159.201285714286</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="3" t="n">
+        <v>45864</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>6159.201285714286</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="3" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>6159.201285714286</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="3" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>6124.775285714287</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="3" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>6068.956285714286</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="3" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>6067.865857142858</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="3" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>5930.751857142857</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="3" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>6167.586857142857</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="3" t="n">
+        <v>45871</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>6167.586857142857</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="3" t="n">
+        <v>45872</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>6167.586857142857</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="3" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>6124.252857142857</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="3" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>6099.196857142858</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="3" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>6084.608999999999</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="3" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>6071.237999999999</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="3" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>6069.523999999999</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="3" t="n">
+        <v>45878</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>6069.523999999999</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>6069.523999999999</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="3" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>6054.396</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="3" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>6037.898999999999</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="3" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>6071.009857142857</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>6065.782857142857</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>6116.816857142858</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>6116.816857142858</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>6116.816857142858</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="3" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>6085.950857142858</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="3" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>6058.552857142858</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>6057.492571428572</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>6031.947571428572</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="3" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>6000.770571428572</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="3" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>6000.770571428572</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="3" t="n">
+        <v>45893</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>6000.770571428572</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="3" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>5975.468571428572</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="3" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>5957.086571428572</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="3" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>5972.947571428572</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="3" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>5961.863571428571</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="3" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>5970.367571428571</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="3" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>5970.367571428571</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="3" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>5970.367571428571</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="3" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>5970.367571428571</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="3" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>5892.329571428571</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="3" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>5922.275</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>5912.737</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="3" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>5915.003</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="3" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>5915.003</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="3" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>5915.003</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>5902.352</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="3" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>5888.941</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>5909.062857142858</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>5896.418857142858</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>5880.946857142858</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>5880.946857142858</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>5880.946857142858</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>5731.384857142858</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>5763.489857142858</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>5787.500714285715</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>5778.447714285714</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="3" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>5778.712714285714</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="3" t="n">
+        <v>45920</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>5778.712714285714</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="3" t="n">
+        <v>45921</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>5778.712714285714</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>5771.961714285715</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>5812.691714285715</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="3" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>5821.331285714286</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="3" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>5822.017285714287</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>5774.063285714286</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>5774.063285714286</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>5774.063285714286</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>5746.579285714286</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>5668.577285714287</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>5757.657285714286</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>5754.933285714285</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>5763.455285714285</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>5763.455285714285</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>5763.455285714285</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>5750.176285714286</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>5758.856285714285</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>5791.604571428571</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>5790.370571428571</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>5790.742571428571</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>5790.742571428571</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>5790.742571428571</v>
       </c>
     </row>
   </sheetData>
@@ -27714,7 +30426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1589"/>
+  <dimension ref="A1:B1747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40430,7 +43142,1271 @@
         <v>45784</v>
       </c>
       <c r="B1589" t="n">
-        <v>6709.277</v>
+        <v>6710.889</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="3" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>6710.889</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="3" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>6710.889</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="3" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>6710.889</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="3" t="n">
+        <v>45788</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>6710.889</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="3" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>6710.889</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="3" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>6710.889</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="3" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>6713.27</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="3" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>6713.27</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="3" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>6713.27</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="3" t="n">
+        <v>45794</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>6713.27</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="3" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>6713.27</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>6713.27</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="3" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>6713.27</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="3" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>6688.726</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="3" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>6688.726</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="3" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>6688.726</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="3" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>6688.726</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="3" t="n">
+        <v>45802</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>6688.726</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="3" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>6688.726</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="3" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>6688.726</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="3" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>6673.244</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="3" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>6673.244</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="3" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>6673.244</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="3" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>6673.244</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="3" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>6673.244</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="3" t="n">
+        <v>45810</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>6673.244</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="3" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>6673.244</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="3" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>6672.885</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="3" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>6672.885</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="3" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>6672.885</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="3" t="n">
+        <v>45815</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>6672.885</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="3" t="n">
+        <v>45816</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>6672.885</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="3" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>6672.885</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>6672.885</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>6677.155</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>6677.155</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>6677.155</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>6677.155</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="3" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>6677.155</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>6677.155</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>6677.155</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>6681.056</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>6681.056</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="3" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>6681.056</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="3" t="n">
+        <v>45829</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>6681.056</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="3" t="n">
+        <v>45830</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>6681.056</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="3" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>6681.056</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="3" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>6681.056</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="3" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>6662.2</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="3" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>6662.2</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="3" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>6662.2</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="3" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>6662.2</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="3" t="n">
+        <v>45837</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>6662.2</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="3" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>6662.2</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="3" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>6662.2</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="3" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>6659.598</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="3" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>6659.598</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="3" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>6659.598</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="3" t="n">
+        <v>45843</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>6659.598</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="3" t="n">
+        <v>45844</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>6659.598</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="3" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>6659.598</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>6659.598</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="3" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>6661.912</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="3" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>6661.912</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="3" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>6661.912</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="3" t="n">
+        <v>45850</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>6661.912</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="3" t="n">
+        <v>45851</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>6661.912</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="3" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>6661.912</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="3" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>6661.912</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="3" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>6659.273</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="3" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>6659.273</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>6659.273</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="3" t="n">
+        <v>45857</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>6659.273</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="3" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>6659.273</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="3" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>6659.273</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="3" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>6659.273</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="3" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>6657.715</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="3" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>6657.715</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="3" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>6657.715</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="3" t="n">
+        <v>45864</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>6657.715</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="3" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>6657.715</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="3" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>6657.715</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="3" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>6657.715</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="3" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>6642.578</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="3" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>6642.578</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="3" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>6642.578</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="3" t="n">
+        <v>45871</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>6642.578</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="3" t="n">
+        <v>45872</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>6642.578</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="3" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>6642.578</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="3" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>6642.578</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="3" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>6640.843</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="3" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>6640.843</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="3" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>6640.843</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="3" t="n">
+        <v>45878</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>6640.843</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>6640.843</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="3" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>6640.843</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="3" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>6640.843</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="3" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>6643.615</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>6643.615</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>6643.615</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>6643.615</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>6643.615</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="3" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>6643.615</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="3" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>6643.615</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>6618.415</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>6618.415</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="3" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>6618.415</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="3" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>6618.415</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="3" t="n">
+        <v>45893</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>6618.415</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="3" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>6618.415</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="3" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>6618.415</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="3" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>6603.384</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="3" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>6603.384</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="3" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>6603.384</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="3" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>6603.384</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="3" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>6603.384</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="3" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>6603.384</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="3" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>6603.384</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="3" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>6602.071</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>6602.071</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="3" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>6602.071</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="3" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>6602.071</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="3" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>6602.071</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>6602.071</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="3" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>6602.071</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>6605.962</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>6605.962</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>6605.962</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>6605.962</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>6605.962</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>6605.962</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>6605.962</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>6608.597</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>6608.597</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="3" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>6608.597</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="3" t="n">
+        <v>45920</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>6608.597</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="3" t="n">
+        <v>45921</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>6608.597</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>6608.597</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>6608.597</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="3" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>6608.395</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="3" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>6608.395</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>6608.395</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>6608.395</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>6608.395</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>6608.395</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>6608.395</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>6587.119</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>6587.119</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>6587.119</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>6587.119</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>6587.119</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>6587.119</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>6587.119</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>6590.815</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>6590.815</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>6590.815</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>6590.815</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>6590.815</v>
       </c>
     </row>
   </sheetData>
@@ -40444,7 +44420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1589"/>
+  <dimension ref="A1:B1747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53160,7 +57136,1271 @@
         <v>45784</v>
       </c>
       <c r="B1589" t="n">
-        <v>129.858</v>
+        <v>154.859</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="3" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>139.768</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="3" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>142.272</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="3" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>142.272</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="3" t="n">
+        <v>45788</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>142.272</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="3" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>147.505</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="3" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>144.214</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="3" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>165.024</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="3" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>109.436</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="3" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>136.799</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="3" t="n">
+        <v>45794</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>136.799</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="3" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>136.799</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>180.417</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="3" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>136.033</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="3" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>162.802</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="3" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>173.018</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="3" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>154.841</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="3" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>154.841</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="3" t="n">
+        <v>45802</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>154.841</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="3" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>154.841</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="3" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>138.066</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="3" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>173.641</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="3" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>165.66</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="3" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>315.657</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="3" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>315.657</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="3" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>315.657</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="3" t="n">
+        <v>45810</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>135.841</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="3" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>153.177</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="3" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>168.882</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="3" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>152.727</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="3" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>149.284</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="3" t="n">
+        <v>45815</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>149.284</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="3" t="n">
+        <v>45816</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>149.284</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="3" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>179.315</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>182.725</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>204.625</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>181.417</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>168.645</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>168.645</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="3" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>168.645</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>140.759</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>168.939</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>205.05</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>205.05</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="3" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>138.283</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="3" t="n">
+        <v>45829</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>138.283</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="3" t="n">
+        <v>45830</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>138.283</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="3" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>165.319</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="3" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>187.367</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="3" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>210.879</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="3" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>252.432</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="3" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>285.742</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="3" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>285.742</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="3" t="n">
+        <v>45837</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>285.742</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="3" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>460.731</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="3" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>245.53</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="3" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>237.307</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="3" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>214.665</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="3" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>214.665</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="3" t="n">
+        <v>45843</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>214.665</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="3" t="n">
+        <v>45844</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>214.665</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="3" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>218.03</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>219.415</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="3" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>227.273</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="3" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>183.339</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="3" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>181.637</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="3" t="n">
+        <v>45850</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>181.637</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="3" t="n">
+        <v>45851</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>181.637</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="3" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>217.841</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="3" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>198.277</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="3" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>197.086</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="3" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>193.66</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>199.298</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="3" t="n">
+        <v>45857</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>199.298</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="3" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>199.298</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="3" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>213.666</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="3" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>196.374</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="3" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>189.632</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="3" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>132.186</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="3" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>150.509</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="3" t="n">
+        <v>45864</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>150.509</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="3" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>150.509</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="3" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>170.463</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="3" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>171.018</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="3" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>155.481</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="3" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>214.445</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="3" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>97.426</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="3" t="n">
+        <v>45871</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>97.426</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="3" t="n">
+        <v>45872</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>97.426</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="3" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>125.73</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="3" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>84.35599999999999</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="3" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>91.96599999999999</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="3" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>77.961</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="3" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>80.303</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="3" t="n">
+        <v>45878</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>80.303</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>80.303</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="3" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>82.214</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="3" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>57.492</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="3" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>57.202</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>28.818</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>33.757</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>33.757</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>33.757</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="3" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>38.24</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="3" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>22.344</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>34.999</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>25.358</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="3" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="3" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="3" t="n">
+        <v>45893</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>36.275</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="3" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>47.567</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="3" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>28.574</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="3" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>34.744</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="3" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>31.966</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="3" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>77.898</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="3" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>77.898</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="3" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>77.898</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="3" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>77.898</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="3" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>21.066</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="3" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>17.923</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>20.128</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="3" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>20.997</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="3" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>20.997</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="3" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>20.997</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>19.416</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="3" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>22.915</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>26.897</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>17.331</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>17.331</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>17.331</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>16.954</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>18.817</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>13.963</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>13.707</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="3" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>11.363</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="3" t="n">
+        <v>45920</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>11.363</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="3" t="n">
+        <v>45921</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>11.363</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>14.173</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>14.402</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="3" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>29.172</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="3" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>25.369</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>48.073</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>48.073</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>48.073</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>56.22</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>49.071</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>10.179</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>8.436</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>25.392</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>25.392</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>25.392</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>21.776</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>4.622</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>5.231</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>4.496</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>4.124</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>4.124</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>4.124</v>
       </c>
     </row>
   </sheetData>
@@ -53174,7 +58414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1589"/>
+  <dimension ref="A1:B1747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65882,7 +71122,7 @@
         <v>45783</v>
       </c>
       <c r="B1588" t="n">
-        <v>590.351</v>
+        <v>583.753</v>
       </c>
     </row>
     <row r="1589">
@@ -65890,7 +71130,1271 @@
         <v>45784</v>
       </c>
       <c r="B1589" t="n">
-        <v>590.351</v>
+        <v>595.86</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="3" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>576.228</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="3" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>572.746</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="3" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>572.746</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="3" t="n">
+        <v>45788</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>572.746</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="3" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>583.369</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="3" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>590.652</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="3" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>562.433</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="3" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>496.649</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="3" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>504.706</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="3" t="n">
+        <v>45794</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>504.706</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="3" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>504.706</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>523.207</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="3" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>511.526</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="3" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>475.886</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="3" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>473.748</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="3" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>470.643</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="3" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>470.643</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="3" t="n">
+        <v>45802</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>470.643</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="3" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>470.643</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="3" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>477.481</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="3" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>436.627</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="3" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>399.844</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="3" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>351.443</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="3" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>351.443</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="3" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>351.443</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="3" t="n">
+        <v>45810</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>439.362</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="3" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>382.937</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="3" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>376.16</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="3" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>350.843</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="3" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>344.758</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="3" t="n">
+        <v>45815</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>344.758</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="3" t="n">
+        <v>45816</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>344.758</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="3" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>358.796</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="3" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>309.409</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="3" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>277.025</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="3" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>260.807</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="3" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>288.078</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="3" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>288.078</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="3" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>288.078</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="3" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>446.302</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>409.139</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>383.851</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="3" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>383.851</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="3" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>366.52</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="3" t="n">
+        <v>45829</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>366.52</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="3" t="n">
+        <v>45830</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>366.52</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="3" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>374.568</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="3" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>358.071</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="3" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>334.579</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="3" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>304.841</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="3" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>338.348</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="3" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>338.348</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="3" t="n">
+        <v>45837</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>338.348</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="3" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>456.98</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="3" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>367.512</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="3" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>372.232</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="3" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>313.162</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="3" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>313.162</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="3" t="n">
+        <v>45843</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>313.162</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="3" t="n">
+        <v>45844</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>313.162</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="3" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>332.482</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>343.047</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="3" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>311.048</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="3" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>288.395</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="3" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>282.363</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="3" t="n">
+        <v>45850</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>282.363</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="3" t="n">
+        <v>45851</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>282.363</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="3" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>298.224</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="3" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>327.937</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="3" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>312.085</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="3" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>317.026</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="3" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>315.658</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="3" t="n">
+        <v>45857</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>315.658</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="3" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>315.658</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="3" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>319.359</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="3" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>345.335</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="3" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>333.538</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="3" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>349.408</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="3" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>348.098</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="3" t="n">
+        <v>45864</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>348.098</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="3" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>348.098</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="3" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>362.57</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="3" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>417.834</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="3" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>419.446</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="3" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>497.596</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="3" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>377.78</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="3" t="n">
+        <v>45871</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>377.78</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="3" t="n">
+        <v>45872</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>377.78</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="3" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>392.81</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="3" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>459.24</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="3" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>464.315</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="3" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>491.691</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="3" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>491.063</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="3" t="n">
+        <v>45878</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>491.063</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="3" t="n">
+        <v>45879</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>491.063</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="3" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>504.28</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="3" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>545.499</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="3" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>515.4690000000001</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="3" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>549.08</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="3" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>493.107</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="3" t="n">
+        <v>45885</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>493.107</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>493.107</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="3" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>519.49</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="3" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>562.784</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>526.063</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="3" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>561.249</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="3" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>581.509</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="3" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>581.509</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="3" t="n">
+        <v>45893</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>581.509</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="3" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>595.519</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="3" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>632.894</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="3" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>595.798</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="3" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>609.66</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="3" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>555.224</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="3" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>555.224</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="3" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>555.224</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="3" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>555.224</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="3" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>690.0940000000001</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="3" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>661.939</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>669.272</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="3" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>666.1369999999999</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="3" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>666.1369999999999</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="3" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>666.1369999999999</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>680.369</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="3" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>690.2809999999999</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>667.585</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>682.732</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>707.77</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>707.77</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>707.77</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>857.7089999999999</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>823.741</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="3" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>807.1420000000001</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>816.451</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="3" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>818.53</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="3" t="n">
+        <v>45920</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>818.53</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="3" t="n">
+        <v>45921</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>818.53</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>822.471</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>781.5119999999999</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="3" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>757.97</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="3" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>761.087</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="3" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>786.337</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="3" t="n">
+        <v>45927</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>786.337</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="3" t="n">
+        <v>45928</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>786.337</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="3" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>805.674</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="3" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>890.825</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="3" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>819.378</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="3" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>823.845</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="3" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>798.367</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="3" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>798.367</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="3" t="n">
+        <v>45935</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>798.367</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="3" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>815.2619999999999</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="3" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>823.736</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="3" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>794.054</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="3" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>796.023</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>796.023</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="3" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>796.023</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="3" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>796.023</v>
       </c>
     </row>
   </sheetData>
